--- a/biology/Botanique/Ellison's_Orange/Ellison's_Orange.xlsx
+++ b/biology/Botanique/Ellison's_Orange/Ellison's_Orange.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ellison%27s_Orange</t>
+          <t>Ellison's_Orange</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ellison's Orange est un cultivar de pomme créé par le révérend Charles Christopher Ellison, un amateur averti qui avait planté plus de 1500 arbres fruitiers à Bracebridge, Lincolnshire vers 1900.
 Ellison's Orange est le résultat du croisement de Cox's Orange Pippin avec Calville blanc d'été. La variété fut vendue à un certain Mr Pennell qui l'enregistra en 1904. La variété reçut l'Award of Merit de la Royal Horticultural Society de Londres en 1911, et un certificat de première classe en 1917.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ellison%27s_Orange</t>
+          <t>Ellison's_Orange</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La pomme est de taille moyenne et de forme ronde à conique. Sa peau cireuse est jaune vert rayée de rouge 
 La chair croquante est blanc crème et très parfumée. Un parfum anisée est possible mais pas toujours présent.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ellison%27s_Orange</t>
+          <t>Ellison's_Orange</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La variété, très fertile, est rustique et moins sujette aux maladies que la Cox. Elle résiste à la tavelure du pommier.
 Elle est pollinisée par Gala, Golden Delicious, Grenadier, James Grieve, Scrumptious, Topaz.
